--- a/Final US Data.xlsx
+++ b/Final US Data.xlsx
@@ -508,10 +508,10 @@
         <v>804699.5000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>92276.83489518006</v>
+        <v>89680.84809134352</v>
       </c>
       <c r="J2" t="n">
-        <v>50053.54173565371</v>
+        <v>43959.32786496047</v>
       </c>
     </row>
     <row r="3">
@@ -542,10 +542,10 @@
         <v>8006588.7</v>
       </c>
       <c r="I3" t="n">
-        <v>600412.6298829343</v>
+        <v>627538.602136745</v>
       </c>
       <c r="J3" t="n">
-        <v>615100.0562128356</v>
+        <v>607611.0254131673</v>
       </c>
     </row>
     <row r="4">
@@ -576,10 +576,10 @@
         <v>3319584.4</v>
       </c>
       <c r="I4" t="n">
-        <v>282314.7760006676</v>
+        <v>254093.6247243253</v>
       </c>
       <c r="J4" t="n">
-        <v>245907.2948729945</v>
+        <v>250173.3809718147</v>
       </c>
     </row>
     <row r="5">
@@ -610,10 +610,10 @@
         <v>43463445.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3429627.224958371</v>
+        <v>3414462.211413235</v>
       </c>
       <c r="J5" t="n">
-        <v>3426320.937695435</v>
+        <v>3431326.179150726</v>
       </c>
     </row>
     <row r="6">
@@ -644,10 +644,10 @@
         <v>6334609.600000001</v>
       </c>
       <c r="I6" t="n">
-        <v>478264.1019614358</v>
+        <v>501727.6568343503</v>
       </c>
       <c r="J6" t="n">
-        <v>484378.6751997848</v>
+        <v>476801.1849629739</v>
       </c>
     </row>
     <row r="7">
@@ -678,10 +678,10 @@
         <v>3921815.7</v>
       </c>
       <c r="I7" t="n">
-        <v>297340.9498842613</v>
+        <v>317376.9762800836</v>
       </c>
       <c r="J7" t="n">
-        <v>340376.3978834388</v>
+        <v>340215.5535873612</v>
       </c>
     </row>
     <row r="8">
@@ -712,10 +712,10 @@
         <v>1071140.4</v>
       </c>
       <c r="I8" t="n">
-        <v>74477.16775560657</v>
+        <v>99263.76315908029</v>
       </c>
       <c r="J8" t="n">
-        <v>76766.68778284133</v>
+        <v>68066.1379514771</v>
       </c>
     </row>
     <row r="9">
@@ -746,10 +746,10 @@
         <v>23625510.7</v>
       </c>
       <c r="I9" t="n">
-        <v>1807751.334850872</v>
+        <v>1815240.234505753</v>
       </c>
       <c r="J9" t="n">
-        <v>1824883.225045029</v>
+        <v>1824997.720047017</v>
       </c>
     </row>
     <row r="10">
@@ -780,10 +780,10 @@
         <v>11679165.3</v>
       </c>
       <c r="I10" t="n">
-        <v>868879.0258694718</v>
+        <v>864662.272023945</v>
       </c>
       <c r="J10" t="n">
-        <v>870035.1840047536</v>
+        <v>871773.2534000638</v>
       </c>
     </row>
     <row r="11">
@@ -814,10 +814,10 @@
         <v>1557459.2</v>
       </c>
       <c r="I11" t="n">
-        <v>92829.20366291402</v>
+        <v>134842.4186845938</v>
       </c>
       <c r="J11" t="n">
-        <v>105800.6813062452</v>
+        <v>92570.17244002626</v>
       </c>
     </row>
     <row r="12">
@@ -848,10 +848,10 @@
         <v>1965771.5</v>
       </c>
       <c r="I12" t="n">
-        <v>151586.2214089624</v>
+        <v>165115.1453352451</v>
       </c>
       <c r="J12" t="n">
-        <v>126079.5830869349</v>
+        <v>116866.0726362292</v>
       </c>
     </row>
     <row r="13">
@@ -882,10 +882,10 @@
         <v>13939003.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1108703.459685954</v>
+        <v>1120105.251896431</v>
       </c>
       <c r="J13" t="n">
-        <v>1122809.626679894</v>
+        <v>1120985.437135335</v>
       </c>
     </row>
     <row r="14">
@@ -916,10 +916,10 @@
         <v>7405440.9</v>
       </c>
       <c r="I14" t="n">
-        <v>592967.1267739983</v>
+        <v>590150.8272218243</v>
       </c>
       <c r="J14" t="n">
-        <v>570859.3290972289</v>
+        <v>568202.3572237636</v>
       </c>
     </row>
     <row r="15">
@@ -950,10 +950,10 @@
         <v>3470577</v>
       </c>
       <c r="I15" t="n">
-        <v>288368.3364758244</v>
+        <v>279281.9469904518</v>
       </c>
       <c r="J15" t="n">
-        <v>244076.0739518392</v>
+        <v>240014.9141841478</v>
       </c>
     </row>
     <row r="16">
@@ -984,10 +984,10 @@
         <v>3204645.4</v>
       </c>
       <c r="I16" t="n">
-        <v>247826.9091885898</v>
+        <v>255440.6568050117</v>
       </c>
       <c r="J16" t="n">
-        <v>230370.1349791483</v>
+        <v>224667.3468455353</v>
       </c>
     </row>
     <row r="17">
@@ -1018,10 +1018,10 @@
         <v>4914440.300000001</v>
       </c>
       <c r="I17" t="n">
-        <v>400182.9460344496</v>
+        <v>373879.7596804706</v>
       </c>
       <c r="J17" t="n">
-        <v>367621.5911091271</v>
+        <v>371826.6473182739</v>
       </c>
     </row>
     <row r="18">
@@ -1052,10 +1052,10 @@
         <v>5113673.4</v>
       </c>
       <c r="I18" t="n">
-        <v>400401.0538265451</v>
+        <v>396597.9496487469</v>
       </c>
       <c r="J18" t="n">
-        <v>405258.3931797707</v>
+        <v>407462.4750298752</v>
       </c>
     </row>
     <row r="19">
@@ -1086,10 +1086,10 @@
         <v>1478633.2</v>
       </c>
       <c r="I19" t="n">
-        <v>182430.2323501449</v>
+        <v>130003.7145819376</v>
       </c>
       <c r="J19" t="n">
-        <v>92694.79998838664</v>
+        <v>96932.0789611509</v>
       </c>
     </row>
     <row r="20">
@@ -1120,10 +1120,10 @@
         <v>6650248.000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>514166.168240668</v>
+        <v>538054.014029504</v>
       </c>
       <c r="J20" t="n">
-        <v>520872.7048820063</v>
+        <v>513238.5174013065</v>
       </c>
     </row>
     <row r="21">
@@ -1154,10 +1154,10 @@
         <v>7581753.300000001</v>
       </c>
       <c r="I21" t="n">
-        <v>645909.8369948603</v>
+        <v>668638.8956284039</v>
       </c>
       <c r="J21" t="n">
-        <v>668519.1508025188</v>
+        <v>663963.148942236</v>
       </c>
     </row>
     <row r="22">
@@ -1188,10 +1188,10 @@
         <v>10985542.7</v>
       </c>
       <c r="I22" t="n">
-        <v>858014.43525764</v>
+        <v>854467.8260094296</v>
       </c>
       <c r="J22" t="n">
-        <v>841431.4343665392</v>
+        <v>839963.9496432851</v>
       </c>
     </row>
     <row r="23">
@@ -1222,10 +1222,10 @@
         <v>6203595.2</v>
       </c>
       <c r="I23" t="n">
-        <v>501879.3760061099</v>
+        <v>504615.4309439024</v>
       </c>
       <c r="J23" t="n">
-        <v>472053.4787207929</v>
+        <v>466074.092693327</v>
       </c>
     </row>
     <row r="24">
@@ -1256,10 +1256,10 @@
         <v>3273763.9</v>
       </c>
       <c r="I24" t="n">
-        <v>276480.9572318085</v>
+        <v>234478.6499564599</v>
       </c>
       <c r="J24" t="n">
-        <v>238446.2841258882</v>
+        <v>247490.7002488937</v>
       </c>
     </row>
     <row r="25">
@@ -1290,10 +1290,10 @@
         <v>6751170.800000001</v>
       </c>
       <c r="I25" t="n">
-        <v>515095.6562103278</v>
+        <v>510394.7520563612</v>
       </c>
       <c r="J25" t="n">
-        <v>497200.9861410235</v>
+        <v>495937.603385362</v>
       </c>
     </row>
     <row r="26">
@@ -1324,10 +1324,10 @@
         <v>1175655.8</v>
       </c>
       <c r="I26" t="n">
-        <v>123310.819462846</v>
+        <v>99462.33297687286</v>
       </c>
       <c r="J26" t="n">
-        <v>77260.59182563981</v>
+        <v>78315.38847442208</v>
       </c>
     </row>
     <row r="27">
@@ -1358,10 +1358,10 @@
         <v>2127848.8</v>
       </c>
       <c r="I27" t="n">
-        <v>177217.8859039228</v>
+        <v>185394.5360685421</v>
       </c>
       <c r="J27" t="n">
-        <v>150248.9854992225</v>
+        <v>142752.7195299924</v>
       </c>
     </row>
     <row r="28">
@@ -1392,10 +1392,10 @@
         <v>3388171.6</v>
       </c>
       <c r="I28" t="n">
-        <v>222217.6498648262</v>
+        <v>260812.5676274506</v>
       </c>
       <c r="J28" t="n">
-        <v>260412.7026363265</v>
+        <v>252643.6218806413</v>
       </c>
     </row>
     <row r="29">
@@ -1426,10 +1426,10 @@
         <v>1495682.1</v>
       </c>
       <c r="I29" t="n">
-        <v>146648.1457330611</v>
+        <v>133295.0358113525</v>
       </c>
       <c r="J29" t="n">
-        <v>95416.2898271447</v>
+        <v>91760.63520170399</v>
       </c>
     </row>
     <row r="30">
@@ -1460,10 +1460,10 @@
         <v>9770409</v>
       </c>
       <c r="I30" t="n">
-        <v>737615.0934270165</v>
+        <v>767158.0883603166</v>
       </c>
       <c r="J30" t="n">
-        <v>772279.7917578899</v>
+        <v>767238.5365156317</v>
       </c>
     </row>
     <row r="31">
@@ -1494,10 +1494,10 @@
         <v>2306511.9</v>
       </c>
       <c r="I31" t="n">
-        <v>175119.6528828497</v>
+        <v>184138.7927124809</v>
       </c>
       <c r="J31" t="n">
-        <v>183193.4092219222</v>
+        <v>181235.7177124913</v>
       </c>
     </row>
     <row r="32">
@@ -1528,10 +1528,10 @@
         <v>21398917.1</v>
       </c>
       <c r="I32" t="n">
-        <v>1812823.354408677</v>
+        <v>1800762.444166858</v>
       </c>
       <c r="J32" t="n">
-        <v>1824979.034895272</v>
+        <v>1831426.851220681</v>
       </c>
     </row>
     <row r="33">
@@ -1562,10 +1562,10 @@
         <v>1153772.4</v>
       </c>
       <c r="I33" t="n">
-        <v>182360.2253056689</v>
+        <v>169114.8240730867</v>
       </c>
       <c r="J33" t="n">
-        <v>155881.5108941397</v>
+        <v>156316.7480038513</v>
       </c>
     </row>
     <row r="34">
@@ -1596,10 +1596,10 @@
         <v>838268.2000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>97328.39803395477</v>
+        <v>81170.8125699799</v>
       </c>
       <c r="J34" t="n">
-        <v>56056.33516646201</v>
+        <v>55090.23943158255</v>
       </c>
     </row>
     <row r="35">
@@ -1630,10 +1630,10 @@
         <v>12858010</v>
       </c>
       <c r="I35" t="n">
-        <v>977120.9841535753</v>
+        <v>977968.8954195726</v>
       </c>
       <c r="J35" t="n">
-        <v>969565.9745346876</v>
+        <v>967994.62904577</v>
       </c>
     </row>
     <row r="36">
@@ -1664,10 +1664,10 @@
         <v>4352668.100000001</v>
       </c>
       <c r="I36" t="n">
-        <v>344260.8232105979</v>
+        <v>332496.2263751038</v>
       </c>
       <c r="J36" t="n">
-        <v>326636.2820843777</v>
+        <v>328006.3315225848</v>
       </c>
     </row>
     <row r="37">
@@ -1698,10 +1698,10 @@
         <v>4639510.7</v>
       </c>
       <c r="I37" t="n">
-        <v>347378.629486517</v>
+        <v>365172.7575407652</v>
       </c>
       <c r="J37" t="n">
-        <v>342337.9294869161</v>
+        <v>334976.5029625194</v>
       </c>
     </row>
     <row r="38">
@@ -1732,10 +1732,10 @@
         <v>14082187.9</v>
       </c>
       <c r="I38" t="n">
-        <v>1061556.016301669</v>
+        <v>1061039.27273517</v>
       </c>
       <c r="J38" t="n">
-        <v>1062495.215778633</v>
+        <v>1062841.283519712</v>
       </c>
     </row>
     <row r="39">
@@ -1766,10 +1766,10 @@
         <v>3513063.4</v>
       </c>
       <c r="I39" t="n">
-        <v>187431.2793663892</v>
+        <v>212459.9106142865</v>
       </c>
       <c r="J39" t="n">
-        <v>285183.7506718749</v>
+        <v>292323.6536746015</v>
       </c>
     </row>
     <row r="40">
@@ -1800,10 +1800,10 @@
         <v>1165297.1</v>
       </c>
       <c r="I40" t="n">
-        <v>80202.71707722275</v>
+        <v>115355.960328244</v>
       </c>
       <c r="J40" t="n">
-        <v>104672.7784118097</v>
+        <v>95874.65483752887</v>
       </c>
     </row>
     <row r="41">
@@ -1834,10 +1834,10 @@
         <v>5663585.4</v>
       </c>
       <c r="I41" t="n">
-        <v>448725.017004967</v>
+        <v>435260.106267967</v>
       </c>
       <c r="J41" t="n">
-        <v>430264.1409674287</v>
+        <v>432117.6860542103</v>
       </c>
     </row>
     <row r="42">
@@ -1868,10 +1868,10 @@
         <v>973124.9</v>
       </c>
       <c r="I42" t="n">
-        <v>110727.8490657026</v>
+        <v>92741.40835667176</v>
       </c>
       <c r="J42" t="n">
-        <v>49489.32463972433</v>
+        <v>45861.73425586108</v>
       </c>
     </row>
     <row r="43">
@@ -1902,10 +1902,10 @@
         <v>7512091.4</v>
       </c>
       <c r="I43" t="n">
-        <v>593570.1604925222</v>
+        <v>578047.5756680272</v>
       </c>
       <c r="J43" t="n">
-        <v>573231.4777632197</v>
+        <v>575525.6843469266</v>
       </c>
     </row>
     <row r="44">
@@ -1936,10 +1936,10 @@
         <v>31895469.1</v>
       </c>
       <c r="I44" t="n">
-        <v>2369033.91380619</v>
+        <v>2362087.553650852</v>
       </c>
       <c r="J44" t="n">
-        <v>2373117.978449976</v>
+        <v>2376344.81740964</v>
       </c>
     </row>
     <row r="45">
@@ -1970,10 +1970,10 @@
         <v>3526553.8</v>
       </c>
       <c r="I45" t="n">
-        <v>251483.6562054038</v>
+        <v>291179.9493046599</v>
       </c>
       <c r="J45" t="n">
-        <v>250438.9670321684</v>
+        <v>235718.6847034938</v>
       </c>
     </row>
     <row r="46">
@@ -2004,10 +2004,10 @@
         <v>686387.9</v>
       </c>
       <c r="I46" t="n">
-        <v>122766.5666468107</v>
+        <v>71854.70176299234</v>
       </c>
       <c r="J46" t="n">
-        <v>32573.38939660582</v>
+        <v>36179.27193524612</v>
       </c>
     </row>
     <row r="47">
@@ -2038,10 +2038,10 @@
         <v>9389070.9</v>
       </c>
       <c r="I47" t="n">
-        <v>700562.2128642164</v>
+        <v>701168.1783848826</v>
       </c>
       <c r="J47" t="n">
-        <v>695936.4457581637</v>
+        <v>694942.5361249596</v>
       </c>
     </row>
     <row r="48">
@@ -2072,10 +2072,10 @@
         <v>8376382.300000001</v>
       </c>
       <c r="I48" t="n">
-        <v>612434.4528080303</v>
+        <v>630938.0565473718</v>
       </c>
       <c r="J48" t="n">
-        <v>618105.9601462506</v>
+        <v>612272.0202586612</v>
       </c>
     </row>
     <row r="49">
@@ -2106,10 +2106,10 @@
         <v>1971361.7</v>
       </c>
       <c r="I49" t="n">
-        <v>200432.258575559</v>
+        <v>162206.7565360145</v>
       </c>
       <c r="J49" t="n">
-        <v>141235.8407288342</v>
+        <v>145365.2254907412</v>
       </c>
     </row>
     <row r="50">
@@ -2140,10 +2140,10 @@
         <v>6404677.4</v>
       </c>
       <c r="I50" t="n">
-        <v>522106.6051982347</v>
+        <v>520004.7755928079</v>
       </c>
       <c r="J50" t="n">
-        <v>483128.21535214</v>
+        <v>477394.3779992069</v>
       </c>
     </row>
     <row r="51">
@@ -2174,10 +2174,10 @@
         <v>636634.9</v>
       </c>
       <c r="I51" t="n">
-        <v>88515.66730597396</v>
+        <v>69731.05191004163</v>
       </c>
       <c r="J51" t="n">
-        <v>25135.92300005823</v>
+        <v>21443.52047887332</v>
       </c>
     </row>
   </sheetData>
